--- a/intervalos_ndt_6.22.xlsx
+++ b/intervalos_ndt_6.22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wsl_atual\simulador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DA7D44-4F48-4223-BF55-6C59AC5C14B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7A2EA2-B5F2-482F-AE7D-E3ED96993A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{F3419C55-1066-4486-8782-759DF9273BDF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F3419C55-1066-4486-8782-759DF9273BDF}"/>
   </bookViews>
   <sheets>
     <sheet name="6.22 x 6.22" sheetId="1" r:id="rId1"/>
@@ -6691,15 +6691,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>16667</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>26192</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50006</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6731,16 +6731,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>535781</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30956</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>583406</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6772,16 +6772,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>166685</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6814,15 +6814,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7149,7 +7149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45111533-F0D8-4E2A-AC2C-0F519570E293}">
   <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -7909,7 +7909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93796860-76A4-4061-AEA6-06B78277E322}">
   <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
@@ -8833,7 +8833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7747BC58-7A05-4AFD-AFFF-668AA696D33C}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
@@ -9299,7 +9299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F4FB31-C037-48D2-934E-1FB80DE4CDA0}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
